--- a/medicine/Enfance/Ferdinand_Raffin/Ferdinand_Raffin.xlsx
+++ b/medicine/Enfance/Ferdinand_Raffin/Ferdinand_Raffin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Ferdinand Raffin, né le 24 janvier 1877 à Paris 1er et mort le 19 avril 1954 à Dijon, est une peintre et illustrateur français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'Adélaïde Honorine Jourdain, blanchisseuse, et de César Barthélemy Raffin, menuisier, Ferdinand Raffin est né rue Coquillière, dans un milieu d'artisans parisiens[1].
-Dès 1895, il fréquente Le Chat noir et produit des dessins humoristiques[2].
-Ancien élève de l'école Boulle, et de Jean Alfred Marioton et Paul Gervais, il expose au Salon des artistes français en 1903, 1910 et 1912 principalement des dessins[3].
-Il épouse à Paris XIe le 29 avril 1905 Marie René Clothilde Caillet[1], d'où un fils, le peintre Léon Raffin[4].
-Il livre aussi des dessins à divers périodiques comme L'Univers illustré (1899), Le Petit Français illustré, Je sais tout (1910-1911), Journal des ouvrages de dames, Le Matin, La Semaine de Suzette[5]... et participe à l'illustration de nombreux ouvrages, pour la plupart à caractère éducatif, entre autres pour Hachette et Mame.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'Adélaïde Honorine Jourdain, blanchisseuse, et de César Barthélemy Raffin, menuisier, Ferdinand Raffin est né rue Coquillière, dans un milieu d'artisans parisiens.
+Dès 1895, il fréquente Le Chat noir et produit des dessins humoristiques.
+Ancien élève de l'école Boulle, et de Jean Alfred Marioton et Paul Gervais, il expose au Salon des artistes français en 1903, 1910 et 1912 principalement des dessins.
+Il épouse à Paris XIe le 29 avril 1905 Marie René Clothilde Caillet, d'où un fils, le peintre Léon Raffin.
+Il livre aussi des dessins à divers périodiques comme L'Univers illustré (1899), Le Petit Français illustré, Je sais tout (1910-1911), Journal des ouvrages de dames, Le Matin, La Semaine de Suzette... et participe à l'illustration de nombreux ouvrages, pour la plupart à caractère éducatif, entre autres pour Hachette et Mame.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Ouvrages illustrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Achille Mélandri, Le Lutin du château de Crasville, Alcide Picard et Kaan, 1898.
 Fernand Decourt, Jean Desnoyers, coll. Bibliothèque de l'enseignement antialcoolique, A. Picard et Kaan, 1901.
